--- a/test.xlsx
+++ b/test.xlsx
@@ -12,9 +12,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>My Cell Value</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>introduced</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>Risk Ass</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>confidential</t>
+  </si>
+  <si>
+    <t>imported</t>
+  </si>
+  <si>
+    <t>exported</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>criticaldate</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>Risk 1</t>
+  </si>
+  <si>
+    <t>Risk 1 desc</t>
+  </si>
+  <si>
+    <t>new Service</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>corporate network</t>
+  </si>
+  <si>
+    <t>it services</t>
+  </si>
+  <si>
+    <t>internal department</t>
+  </si>
+  <si>
+    <t>this is my best guess</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -69,6 +156,143 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
